--- a/results/vps_1_core.xlsx
+++ b/results/vps_1_core.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fat/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fat/worx/tmp/ws-benchmark/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>http4s</t>
-  </si>
-  <si>
-    <t>spider-g</t>
   </si>
   <si>
     <t>requests per second</t>
@@ -45,6 +42,15 @@
   </si>
   <si>
     <t>actix-diesel</t>
+  </si>
+  <si>
+    <t>actix-tokio</t>
+  </si>
+  <si>
+    <t>spider-gazelle</t>
+  </si>
+  <si>
+    <t>grip</t>
   </si>
 </sst>
 </file>
@@ -124,9 +130,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,9 +225,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>http4s</c:v>
                 </c:pt>
@@ -232,17 +238,23 @@
                   <c:v>spring</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>spider-g</c:v>
+                  <c:v>actix-tokio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>spider-gazelle</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>grip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>502.08</c:v>
                 </c:pt>
@@ -253,7 +265,13 @@
                   <c:v>1029.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3046.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2750.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2746.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,11 +286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2078608224"/>
-        <c:axId val="-1899076128"/>
+        <c:axId val="2119137456"/>
+        <c:axId val="2121553456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2078608224"/>
+        <c:axId val="2119137456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,7 +333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1899076128"/>
+        <c:crossAx val="2121553456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -323,7 +341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1899076128"/>
+        <c:axId val="2121553456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,7 +361,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -374,7 +392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078608224"/>
+        <c:crossAx val="2119137456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -501,9 +519,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>http4s</c:v>
                 </c:pt>
@@ -514,17 +532,23 @@
                   <c:v>spring</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>spider-g</c:v>
+                  <c:v>actix-tokio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>spider-gazelle</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>grip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$6</c:f>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>195072.0</c:v>
                 </c:pt>
@@ -535,7 +559,13 @@
                   <c:v>180344.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3668.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7660.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7640.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,11 +580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-2124526224"/>
-        <c:axId val="-1898311952"/>
+        <c:axId val="2121382144"/>
+        <c:axId val="2121378736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124526224"/>
+        <c:axId val="2121382144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,7 +627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1898311952"/>
+        <c:crossAx val="2121378736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -605,7 +635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1898311952"/>
+        <c:axId val="2121378736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124526224"/>
+        <c:crossAx val="2121382144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1839,7 +1869,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1863,13 +1893,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2155,14 +2185,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -2170,73 +2202,103 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>502.08</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>195072</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>D3/1024</f>
         <v>190.5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
         <v>1796.52</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>5560</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>D4/1024</f>
         <v>5.4296875</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
         <v>1029.8699999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>180344</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>D5/1024</f>
         <v>176.1171875</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3046.2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3668</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6/1024</f>
+        <v>3.58203125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
         <v>2750.41</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="4">
         <v>7660</v>
       </c>
-      <c r="E6" s="4">
-        <f>D6/1024</f>
+      <c r="E7" s="3">
+        <f>D7/1024</f>
         <v>7.48046875</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2746.69</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7640</v>
+      </c>
+      <c r="E8" s="3">
+        <f>D8/1024</f>
+        <v>7.4609375</v>
       </c>
     </row>
   </sheetData>

--- a/results/vps_1_core.xlsx
+++ b/results/vps_1_core.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>http4s</t>
-  </si>
-  <si>
-    <t>requests per second</t>
-  </si>
-  <si>
-    <t>memory used (KB)</t>
-  </si>
-  <si>
-    <t>memory (MB)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>spring</t>
   </si>
@@ -52,12 +40,57 @@
   <si>
     <t>grip</t>
   </si>
+  <si>
+    <t>X=1</t>
+  </si>
+  <si>
+    <t>X=2</t>
+  </si>
+  <si>
+    <t>X=4</t>
+  </si>
+  <si>
+    <t>spider-gazelle-mt</t>
+  </si>
+  <si>
+    <t>X=8</t>
+  </si>
+  <si>
+    <t>X=16</t>
+  </si>
+  <si>
+    <t>X=32</t>
+  </si>
+  <si>
+    <t>X=64</t>
+  </si>
+  <si>
+    <t>grip-mt</t>
+  </si>
+  <si>
+    <t>wrk -t1 -cX -d10s http://…</t>
+  </si>
+  <si>
+    <t>mt: compiled with -Dpreview_mt</t>
+  </si>
+  <si>
+    <t>NOTES :</t>
+  </si>
+  <si>
+    <t>fasthttp-router</t>
+  </si>
+  <si>
+    <t>grip-mt-2</t>
+  </si>
+  <si>
+    <t>mt-2 : with env var: CRYSTAL_WORKERS=2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,8 +117,36 @@
       <color theme="1"/>
       <name val="Consolas"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +159,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -122,19 +189,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -162,6 +298,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>on vps box, 1 core cpu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -195,87 +356,797 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>requests per second</c:v>
+                  <c:v>actix-diesel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>http4s</c:v>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>actix-diesel</c:v>
+                  <c:v>X=2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>spring</c:v>
+                  <c:v>X=4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>actix-tokio</c:v>
+                  <c:v>X=8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>spider-gazelle</c:v>
+                  <c:v>X=16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>grip</c:v>
+                  <c:v>X=32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X=64</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:f>Sheet1!$C$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>502.08</c:v>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1884.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1796.52</c:v>
+                  <c:v>2144.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1029.87</c:v>
+                  <c:v>2302.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3046.2</c:v>
+                  <c:v>2401.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2750.41</c:v>
+                  <c:v>2383.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2746.69</c:v>
+                  <c:v>2499.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2488.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>actix-tokio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X=32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3278.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4376.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5174.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5941.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6317.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6871.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7179.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spider-gazelle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X=32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3016.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3156.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3698.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3938.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4078.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4011.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4058.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spider-gazelle-mt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X=32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3046.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3042.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3126.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3355.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3658.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3764.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3851.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>grip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X=32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3092.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3446.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3575.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3987.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4004.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4234.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4107.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>grip-mt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X=32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2992.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3090.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3142.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3530.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3813.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3933.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3744.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>grip-mt-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X=32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3101.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2976.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3269.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3635.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3843.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3995.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4035.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X=32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1006.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1038.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1135.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1248.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1254.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1328.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1334.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fasthttp-router</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>X=1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>X=2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>X=4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X=8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X=16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X=32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>X=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2916.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3362.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4003.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4463.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4569.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4940.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5097.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -285,17 +1156,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="2119137456"/>
-        <c:axId val="2121553456"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="-1900737088"/>
+        <c:axId val="1217045776"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="2119137456"/>
+        <c:axId val="-1900737088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -333,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121553456"/>
+        <c:crossAx val="1217045776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -341,12 +1212,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121553456"/>
+        <c:axId val="1217045776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -392,301 +1263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119137456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-ID"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>memory used (KB)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>http4s</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>actix-diesel</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>spring</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>actix-tokio</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>spider-gazelle</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>grip</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>195072.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5560.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>180344.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3668.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7660.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7640.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="2121382144"/>
-        <c:axId val="2121378736"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2121382144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2121378736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2121378736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2121382144"/>
+        <c:crossAx val="-1900737088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -807,48 +1384,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -956,6 +1493,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -966,6 +1508,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -997,6 +1544,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1052,23 +1602,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1173,8 +1722,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1306,525 +1855,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1861,20 +1904,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>233680</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1884,36 +1927,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2185,123 +2198,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C4" s="2">
+        <v>1884.04</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2144.06</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2302.0100000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2401.25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2383.21</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2499.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2488.44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C5" s="2">
+        <v>3278.36</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4376.3999999999996</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5174.3100000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5941.72</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6317.86</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6871.72</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7179.42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="2">
+        <v>3016.76</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3156.67</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3698.13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3938.23</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4078.8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4011.92</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4058.4</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3046.36</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3042.74</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3126.82</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3355.82</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3658.68</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3764.44</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3851.33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3092.05</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3446.78</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3575.42</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3987.16</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4004.96</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4234.8500000000004</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4107.57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2992.32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3090.56</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3142.97</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3530.72</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3813.49</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3933.84</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3744.19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3101.88</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2976.69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3269.41</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3635.48</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3843.13</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3995.89</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4035.12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>502.08</v>
-      </c>
-      <c r="D3" s="4">
-        <v>195072</v>
-      </c>
-      <c r="E3" s="3">
-        <f>D3/1024</f>
-        <v>190.5</v>
+      <c r="C11" s="2">
+        <v>1006.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1038.6400000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1135.29</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1248.8699999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1254.07</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1328.39</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1334.75</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1796.52</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5560</v>
-      </c>
-      <c r="E4" s="3">
-        <f>D4/1024</f>
-        <v>5.4296875</v>
-      </c>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2916.71</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3362.31</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4003.97</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4463.12</v>
+      </c>
+      <c r="G12" s="12">
+        <v>4569.2700000000004</v>
+      </c>
+      <c r="H12" s="12">
+        <v>4940.67</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5097.79</v>
+      </c>
+      <c r="J12" s="14"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1029.8699999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>180344</v>
-      </c>
-      <c r="E5" s="3">
-        <f>D5/1024</f>
-        <v>176.1171875</v>
-      </c>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3046.2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3668</v>
-      </c>
-      <c r="E6" s="3">
-        <f>D6/1024</f>
-        <v>3.58203125</v>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2750.41</v>
-      </c>
-      <c r="D7" s="4">
-        <v>7660</v>
-      </c>
-      <c r="E7" s="3">
-        <f>D7/1024</f>
-        <v>7.48046875</v>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2746.69</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7640</v>
-      </c>
-      <c r="E8" s="3">
-        <f>D8/1024</f>
-        <v>7.4609375</v>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:I2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/results/vps_1_core.xlsx
+++ b/results/vps_1_core.xlsx
@@ -251,6 +251,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,13 +267,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1157,11 +1157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1900737088"/>
-        <c:axId val="1217045776"/>
+        <c:axId val="-2054077648"/>
+        <c:axId val="2118734480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1900737088"/>
+        <c:axId val="-2054077648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1217045776"/>
+        <c:crossAx val="2118734480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1217045776"/>
+        <c:axId val="2118734480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1900737088"/>
+        <c:crossAx val="-2054077648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1910,10 +1910,10 @@
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2201,7 +2201,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2209,23 +2209,21 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
@@ -2468,45 +2466,45 @@
       <c r="D12" s="2">
         <v>3362.31</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>4003.97</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>4463.12</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <v>4569.2700000000004</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <v>4940.67</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="10">
         <v>5097.79</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
